--- a/content/course-econometrics/data/syllabus.xlsx
+++ b/content/course-econometrics/data/syllabus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\netlify\content\course-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA12C3-D321-40DE-A55F-AECFE8D25440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF29EDE-1296-42E9-8D3A-CD250C5998D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>status_slide</t>
   </si>
@@ -47,103 +47,251 @@
     <t>status_excercise</t>
   </si>
   <si>
+    <t>一元回归：估计问题</t>
+  </si>
+  <si>
+    <t>一元回归：模型形式</t>
+  </si>
+  <si>
+    <t>多元回归1：代数部分</t>
+  </si>
+  <si>
+    <t>多元回归2：矩阵部分</t>
+  </si>
+  <si>
+    <t>放宽基本假设：多重共线性</t>
+  </si>
+  <si>
+    <t>放宽基本假设：自相关性</t>
+  </si>
+  <si>
+    <t>01-introduction-slide.html</t>
+  </si>
+  <si>
+    <t>02-simple-reg-basic-slide.html</t>
+  </si>
+  <si>
+    <t>03-simple-reg-parameter-estimate-slide.html</t>
+  </si>
+  <si>
+    <t>04-simple-reg-hypothesis-test-slide.html</t>
+  </si>
+  <si>
+    <t>05-simple-reg-eq-forms-slide.html</t>
+  </si>
+  <si>
+    <t>06-multiple-reg-algebra-slide.html</t>
+  </si>
+  <si>
+    <t>06-multiple-reg-matrix-slide.html</t>
+  </si>
+  <si>
+    <t>07-multi-linearity-slide.html</t>
+  </si>
+  <si>
+    <t>08-hetero-scadeciticity-slide.html</t>
+  </si>
+  <si>
+    <t>09-auto-correlation-slide.html</t>
+  </si>
+  <si>
+    <t>10-dummy-model-slide.html</t>
+  </si>
+  <si>
+    <t>11-instrument-variable-slide.html</t>
+  </si>
+  <si>
+    <t>chpt</t>
+  </si>
+  <si>
+    <t>id_chpt</t>
+  </si>
+  <si>
+    <t>id_section</t>
+  </si>
+  <si>
+    <t>file_reading</t>
+  </si>
+  <si>
+    <t>file_slide</t>
+  </si>
+  <si>
+    <t>file_pdf</t>
+  </si>
+  <si>
+    <t>file_exercise</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/01-introduction-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/02-simple-reg-basic-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/03-simple-reg-parameter-estimate-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/04-simple-reg-hypothesis-test-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/05-simple-reg-eq-forms-slide.pdf</t>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-introduction-slide</t>
+  </si>
+  <si>
+    <t>02-simple-reg-basic-slide</t>
+  </si>
+  <si>
+    <t>03-simple-reg-parameter-estimate-slide</t>
+  </si>
+  <si>
+    <t>04-simple-reg-hypothesis-test-slide</t>
+  </si>
+  <si>
+    <t>05-simple-reg-eq-forms-slide</t>
+  </si>
+  <si>
+    <t>06-multiple-reg-algebra-slide</t>
+  </si>
+  <si>
+    <t>06-multiple-reg-matrix-slide</t>
+  </si>
+  <si>
+    <t>07-multi-linearity-slide</t>
+  </si>
+  <si>
+    <t>08-hetero-scadeciticity-slide</t>
+  </si>
+  <si>
+    <t>09-auto-correlation-slide</t>
+  </si>
+  <si>
+    <t>10-dummy-model-slide</t>
+  </si>
+  <si>
+    <t>11-instrument-variable-slide</t>
+  </si>
+  <si>
+    <t>课程说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-course-schedule-slide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-course-schedule-slide.html</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/00-course-schedule-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/06-multiple-reg-algebra-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/06-multiple-reg-matrix-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/07-multi-linearity-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/08-hetero-scadeciticity-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/09-auto-correlation-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/10-dummy-model-slide.pdf</t>
+  </si>
+  <si>
+    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/11-instrument-variable-slide.pdf</t>
+  </si>
+  <si>
+    <t>chpt_chn</t>
+  </si>
+  <si>
+    <t>第00章 课程说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第03章 一元回归：估计问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第04章 一元回归：假设检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第05章 一元回归：模型形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第06章 多元回归1：代数部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第06章 多元回归2：矩阵部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第07章 放宽基本假设：多重共线性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第08章 放宽基本假设：异方差性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第09章 放宽基本假设：自相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11章 内生解释变量问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10章 虚拟变量回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内生解释变量问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟变量回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>绪论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一元回归：基本思想</t>
-  </si>
-  <si>
-    <t>一元回归：估计问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一元回归：假设检验</t>
-  </si>
-  <si>
-    <t>一元回归：模型形式</t>
-  </si>
-  <si>
-    <t>多元回归1：代数部分</t>
-  </si>
-  <si>
-    <t>多元回归2：矩阵部分</t>
-  </si>
-  <si>
-    <t>放宽基本假设：多重共线性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>放宽基本假设：异方差性</t>
-  </si>
-  <si>
-    <t>放宽基本假设：自相关性</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 虚拟变量回归模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 内生解释变量问题</t>
-  </si>
-  <si>
-    <t>01-introduction-slide.html</t>
-  </si>
-  <si>
-    <t>02-simple-reg-basic-slide.html</t>
-  </si>
-  <si>
-    <t>03-simple-reg-parameter-estimate-slide.html</t>
-  </si>
-  <si>
-    <t>04-simple-reg-hypothesis-test-slide.html</t>
-  </si>
-  <si>
-    <t>05-simple-reg-eq-forms-slide.html</t>
-  </si>
-  <si>
-    <t>06-multiple-reg-algebra-slide.html</t>
-  </si>
-  <si>
-    <t>06-multiple-reg-matrix-slide.html</t>
-  </si>
-  <si>
-    <t>07-multi-linearity-slide.html</t>
-  </si>
-  <si>
-    <t>08-hetero-scadeciticity-slide.html</t>
-  </si>
-  <si>
-    <t>09-auto-correlation-slide.html</t>
-  </si>
-  <si>
-    <t>10-dummy-model-slide.html</t>
-  </si>
-  <si>
-    <t>11-instrument-variable-slide.html</t>
-  </si>
-  <si>
-    <t>chpt</t>
-  </si>
-  <si>
-    <t>id_chpt</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>id_section</t>
-  </si>
-  <si>
-    <t>file_reading</t>
-  </si>
-  <si>
-    <t>file_slide</t>
-  </si>
-  <si>
-    <t>file_pdf</t>
-  </si>
-  <si>
-    <t>file_exercise</t>
-  </si>
-  <si>
-    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第01章 绪论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第02章 一元回归：基本思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,298 +617,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512DA56F-F0A1-490C-9B7E-8055C16647CB}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.25" customWidth="1"/>
+    <col min="8" max="8" width="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/content/course-econometrics/data/syllabus.xlsx
+++ b/content/course-econometrics/data/syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\netlify\content\course-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF29EDE-1296-42E9-8D3A-CD250C5998D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B36F6-A09A-4873-8461-C9E92B3188A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2010" windowWidth="25020" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>status_slide</t>
   </si>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>第02章 一元回归：基本思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading/cht01-history/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +624,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +633,7 @@
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
     <col min="7" max="7" width="45.25" customWidth="1"/>
     <col min="8" max="8" width="90" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
@@ -720,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>

--- a/content/course-econometrics/data/syllabus.xlsx
+++ b/content/course-econometrics/data/syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\netlify\content\course-econometrics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B36F6-A09A-4873-8461-C9E92B3188A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6A390F-0E40-4D1B-9A28-B30E0B220587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2010" windowWidth="25020" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5535" windowWidth="24540" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -295,7 +295,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reading/cht01-history/</t>
+    <t>reading/cht01-history.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/content/course-econometrics/data/syllabus.xlsx
+++ b/content/course-econometrics/data/syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6A390F-0E40-4D1B-9A28-B30E0B220587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D54CF-9C45-4E0E-BC92-C3DAFB10BB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5535" windowWidth="24540" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>status_slide</t>
   </si>
@@ -296,6 +296,10 @@
   </si>
   <si>
     <t>reading/cht01-history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading/cht03-monte-simul.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +628,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,7 +780,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>

--- a/content/course-econometrics/data/syllabus.xlsx
+++ b/content/course-econometrics/data/syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D54CF-9C45-4E0E-BC92-C3DAFB10BB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C5C73-BFCE-4294-9BCB-D91F35AB88FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -126,21 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/01-introduction-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/02-simple-reg-basic-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/03-simple-reg-parameter-estimate-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/04-simple-reg-hypothesis-test-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/05-simple-reg-eq-forms-slide.pdf</t>
-  </si>
-  <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,30 +177,6 @@
     <t>00-course-schedule-slide.html</t>
   </si>
   <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/00-course-schedule-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/06-multiple-reg-algebra-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/06-multiple-reg-matrix-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/07-multi-linearity-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/08-hetero-scadeciticity-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/09-auto-correlation-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/10-dummy-model-slide.pdf</t>
-  </si>
-  <si>
-    <t>https://d.seit2019.xyz/wp-content/uploads/2020/03/11-instrument-variable-slide.pdf</t>
-  </si>
-  <si>
     <t>chpt_chn</t>
   </si>
   <si>
@@ -300,6 +261,58 @@
   </si>
   <si>
     <t>reading/cht03-monte-simul.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/00-course-schedule-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/01-introduction-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/02-simple-reg-basic-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/03-simple-reg-parameter-estimate-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/04-simple-reg-hypothesis-test-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/05-simple-reg-eq-forms-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/06-multiple-reg-algebra-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/06-multiple-reg-matrix-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/07-multi-linearity-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/08-hetero-scadeciticity-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/09-auto-correlation-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/10-dummy-model-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf/11-instrument-variable-slide.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512DA56F-F0A1-490C-9B7E-8055C16647CB}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,13 +668,13 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -690,25 +703,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -716,25 +729,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -742,16 +755,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -760,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -774,19 +787,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -794,16 +807,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -812,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -826,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -838,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -852,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -864,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
@@ -878,10 +891,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -890,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -904,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -916,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -924,16 +937,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -942,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -956,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
@@ -968,7 +981,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -976,16 +989,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -994,7 +1007,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
         <v>29</v>
@@ -1002,16 +1015,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -1020,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>

--- a/content/course-econometrics/data/syllabus.xlsx
+++ b/content/course-econometrics/data/syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C5C73-BFCE-4294-9BCB-D91F35AB88FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF9268-4717-48B4-92A7-EAAFB39C35E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,42 +65,6 @@
     <t>放宽基本假设：自相关性</t>
   </si>
   <si>
-    <t>01-introduction-slide.html</t>
-  </si>
-  <si>
-    <t>02-simple-reg-basic-slide.html</t>
-  </si>
-  <si>
-    <t>03-simple-reg-parameter-estimate-slide.html</t>
-  </si>
-  <si>
-    <t>04-simple-reg-hypothesis-test-slide.html</t>
-  </si>
-  <si>
-    <t>05-simple-reg-eq-forms-slide.html</t>
-  </si>
-  <si>
-    <t>06-multiple-reg-algebra-slide.html</t>
-  </si>
-  <si>
-    <t>06-multiple-reg-matrix-slide.html</t>
-  </si>
-  <si>
-    <t>07-multi-linearity-slide.html</t>
-  </si>
-  <si>
-    <t>08-hetero-scadeciticity-slide.html</t>
-  </si>
-  <si>
-    <t>09-auto-correlation-slide.html</t>
-  </si>
-  <si>
-    <t>10-dummy-model-slide.html</t>
-  </si>
-  <si>
-    <t>11-instrument-variable-slide.html</t>
-  </si>
-  <si>
     <t>chpt</t>
   </si>
   <si>
@@ -174,9 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00-course-schedule-slide.html</t>
-  </si>
-  <si>
     <t>chpt_chn</t>
   </si>
   <si>
@@ -313,6 +274,58 @@
   </si>
   <si>
     <t>pdf/11-instrument-variable-slide.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/00-course-schedule-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/01-introduction-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/02-simple-reg-basic-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/03-simple-reg-parameter-estimate-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/04-simple-reg-hypothesis-test-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/05-simple-reg-eq-forms-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/06-multiple-reg-algebra-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/06-multiple-reg-matrix-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/07-multi-linearity-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/08-hetero-scadeciticity-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/09-auto-correlation-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/10-dummy-model-slide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-slide-class/11-instrument-variable-slide.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +654,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,31 +675,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -703,80 +716,80 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -787,48 +800,48 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -839,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -865,22 +878,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -891,22 +904,22 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -917,48 +930,48 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -969,74 +982,74 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
